--- a/data/TopOnePercent/Qufu Normal University.xlsx
+++ b/data/TopOnePercent/Qufu Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1341.0</v>
+        <v>1351.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>18399.0</v>
+        <v>18567.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>13.72</v>
+        <v>13.74</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1133.0</v>
+        <v>1130.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>10385.0</v>
+        <v>10315.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>9.17</v>
+        <v>9.13</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>122.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>733.0</v>
+        <v>739.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>8748.0</v>
+        <v>8403.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>11.93</v>
+        <v>11.37</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,22 +250,22 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>4944.0</v>
+        <v>4980.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>52743.0</v>
+        <v>52677.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>10.67</v>
+        <v>10.58</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>216.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
